--- a/记录分工表-文超.xlsx
+++ b/记录分工表-文超.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Midea\Midea\项目资料\项目方案\华为\修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="9180"/>
   </bookViews>
@@ -18,61 +23,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
-    <t>4.4.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>运维平台规范明确、长期策略、标准化作业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.3</t>
-  </si>
-  <si>
     <t>平稳期人员组织架构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.4</t>
-  </si>
-  <si>
     <t>ODC场地建设专题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.5</t>
-  </si>
-  <si>
     <t>场地管理规范</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.6</t>
-  </si>
-  <si>
     <t>汉得立体完善的运维支撑架构</t>
   </si>
   <si>
-    <t>4.4.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目研讨会机制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>知识转移体系</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AB角互备机制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,15 +209,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平稳阶段的目标和面临的主要问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RFP答复要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +295,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -339,6 +351,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -349,12 +367,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,7 +664,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,288 +673,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
-        <v>6.6</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/记录分工表-文超.xlsx
+++ b/记录分工表-文超.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Midea\Midea\项目资料\项目方案\华为\修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\helloworld\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,49 +54,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件分析需求专题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务质量管理方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户运营、用户满意度管理专题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完善阶段的目标和面临的主要问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完善阶段的运维措施和方案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.3</t>
-  </si>
-  <si>
     <t>体系完善期人员组织架构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,6 +227,30 @@
   </si>
   <si>
     <t>4.2.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +665,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,15 +675,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -690,7 +691,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -698,7 +699,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -706,7 +707,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -714,7 +715,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -722,7 +723,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -730,7 +731,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -738,130 +739,130 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -869,7 +870,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -877,7 +878,7 @@
         <v>5.2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -885,7 +886,7 @@
         <v>5.3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -893,7 +894,7 @@
         <v>5.4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -901,7 +902,7 @@
         <v>5.5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -909,7 +910,7 @@
         <v>6.1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -917,7 +918,7 @@
         <v>6.3</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -925,7 +926,7 @@
         <v>6.4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -933,7 +934,7 @@
         <v>6.5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -941,7 +942,7 @@
         <v>6.6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -949,7 +950,7 @@
         <v>6.7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/记录分工表-文超.xlsx
+++ b/记录分工表-文超.xlsx
@@ -78,41 +78,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.4</t>
-  </si>
-  <si>
     <t>定期运维分析和持续改进</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>轮岗制度的搭建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>运维流程和规范优化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.5.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提升运维品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.6.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>全面升华阶段的目标和面临的主要问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,6 +232,26 @@
   </si>
   <si>
     <t>4.3.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,15 +676,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -691,7 +692,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -699,7 +700,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -707,7 +708,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -715,7 +716,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
@@ -723,7 +724,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -731,7 +732,7 @@
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -739,7 +740,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
@@ -747,7 +748,7 @@
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -755,7 +756,7 @@
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -763,106 +764,106 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -870,7 +871,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -878,7 +879,7 @@
         <v>5.2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -886,7 +887,7 @@
         <v>5.3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -894,7 +895,7 @@
         <v>5.4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
@@ -902,7 +903,7 @@
         <v>5.5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -910,7 +911,7 @@
         <v>6.1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -918,7 +919,7 @@
         <v>6.3</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -926,7 +927,7 @@
         <v>6.4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -934,7 +935,7 @@
         <v>6.5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -942,7 +943,7 @@
         <v>6.6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -950,7 +951,7 @@
         <v>6.7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/记录分工表-文超.xlsx
+++ b/记录分工表-文超.xlsx
@@ -98,31 +98,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.6.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>全面提升阶段的运维提升措施</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.6.3</t>
-  </si>
-  <si>
     <t>全面提升期人员组织架构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.6.4</t>
-  </si>
-  <si>
     <t>变被动维护为主动服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.6.5</t>
-  </si>
-  <si>
     <t>运维职能升华</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,6 +239,22 @@
   </si>
   <si>
     <t>4.4.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,12 +334,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,283 +675,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/记录分工表-文超.xlsx
+++ b/记录分工表-文超.xlsx
@@ -300,7 +300,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,30 +340,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A20:A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,7 +687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -683,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -691,7 +703,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -699,55 +711,55 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -755,7 +767,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -763,7 +775,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -771,63 +783,63 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -835,7 +847,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -843,7 +855,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -851,7 +863,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -859,7 +871,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -867,7 +879,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -875,7 +887,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>5.2</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -883,7 +895,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>5.3</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -891,7 +903,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>5.4</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -899,7 +911,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>5.5</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -907,7 +919,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>6.1</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -915,15 +927,15 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>6.3</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>6.4</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -931,7 +943,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>6.5</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -939,7 +951,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>6.6</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -947,7 +959,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>6.7</v>
       </c>
       <c r="B35" s="1" t="s">
